--- a/笔记/python/python模块/openpyxl/Workbook对象.xlsx
+++ b/笔记/python/python模块/openpyxl/Workbook对象.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FB9F1C-4138-4561-BC7C-39407B81A16E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -456,10 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容的类型，由内容本身决定，是整形就是整形，是字符串就是字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>coordinate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,13 +595,17 @@
   </si>
   <si>
     <t>2.表格对象Worksheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容的类型，由内容本身决定，是整形就是整形，是字符串就是字符串，可以直接赋值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,7 +651,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -661,16 +666,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -765,26 +764,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,23 +799,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,62 +974,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1080,32 +1045,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
+    <col min="5" max="5" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1142,7 +1107,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1198,7 +1163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1212,35 +1177,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1254,7 +1219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1271,7 +1236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1288,7 +1253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1308,7 +1273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1344,34 +1309,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1402,33 +1367,33 @@
         <v>98</v>
       </c>
       <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>116</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>117</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>118</v>
       </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1442,7 +1407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1459,7 +1424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1473,7 +1438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1490,7 +1455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1504,7 +1469,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1521,7 +1486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1535,7 +1500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1549,7 +1514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1563,7 +1528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -1581,7 +1546,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1592,13 +1557,13 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1609,13 +1574,13 @@
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1635,7 +1600,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1655,7 +1620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -1683,32 +1648,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -1742,7 +1707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1756,7 +1721,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1770,21 +1735,21 @@
         <v>108</v>
       </c>
       <c r="F5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>101</v>
       </c>
       <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
         <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1797,189 +1762,189 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F3CB4-588C-418D-A5C8-94A429F43852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
